--- a/corr.xlsx
+++ b/corr.xlsx
@@ -50,13 +50,7 @@
 0：不相关</t>
   </si>
   <si>
-    <t>成对的等级数据，无论分布</t>
-  </si>
-  <si>
     <t>Spearman相关系数</t>
-  </si>
-  <si>
-    <t>成对的连续数据，接近正态的单峰分布</t>
   </si>
   <si>
     <t>Pearson相关系数</t>
@@ -77,7 +71,18 @@
     <t>定义</t>
   </si>
   <si>
-    <t>P小，拒绝原假设，
+    <t>成对的连续数据，
+接近正态的单峰分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成对的等级数据，
+无论分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P小，
+拒绝原假设，
 认为有相关性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +122,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,7 +337,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,14 +498,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>584200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
@@ -523,20 +544,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>69850</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>260350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1339850" cy="463550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1409700</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>723900</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Object 5" hidden="1">
@@ -570,20 +596,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2343150</xdr:colOff>
+          <xdr:colOff>1974850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>355600</xdr:rowOff>
+          <xdr:rowOff>374650</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="723900" cy="457200"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2698750</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>831850</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Object 6" hidden="1">
@@ -617,20 +648,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>419100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>622300</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Object 7" hidden="1">
@@ -664,20 +700,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:colOff>831850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
+          <xdr:rowOff>571500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1339850" cy="469900"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>2171700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>1041400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Object 8" hidden="1">
@@ -711,7 +752,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -761,14 +802,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>431800</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Object 10" hidden="1">
@@ -802,20 +848,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>546100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1143000" cy="476250"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1733550</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>1022350</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
@@ -849,7 +900,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1122,14 +1173,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
@@ -1139,46 +1190,46 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="89.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>5</v>
@@ -1360,15 +1411,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2343150</xdr:colOff>
+                <xdr:colOff>1974850</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>355600</xdr:rowOff>
+                <xdr:rowOff>374650</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3067050</xdr:colOff>
+                <xdr:colOff>2698750</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>812800</xdr:rowOff>
+                <xdr:rowOff>831850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1410,15 +1461,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>679450</xdr:colOff>
+                <xdr:colOff>831850</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>590550</xdr:rowOff>
+                <xdr:rowOff>571500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>2019300</xdr:colOff>
+                <xdr:colOff>2171700</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>1060450</xdr:rowOff>
+                <xdr:rowOff>1041400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
